--- a/content/blog/2022-09-25-multiple-trend-in-proportions/output/MyResults_TestForTrendInProportions.xlsx
+++ b/content/blog/2022-09-25-multiple-trend-in-proportions/output/MyResults_TestForTrendInProportions.xlsx
@@ -443,22 +443,22 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.96392785571143</v>
+        <v>1.57051282051282</v>
       </c>
       <c r="I2" t="n">
-        <v>0.161093863614048</v>
+        <v>0.210132555374333</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -471,16 +471,16 @@
         <v>14</v>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -497,22 +497,22 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
         <v>5</v>
       </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>8.56761141330279</v>
+        <v>0.0310800310800308</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00342195796400831</v>
+        <v>0.860061958100425</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -525,16 +525,16 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -551,7 +551,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.814376004756768</v>
+        <v>4.61538461538461</v>
       </c>
       <c r="I6" t="n">
-        <v>0.366829638165771</v>
+        <v>0.0316863885397939</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -579,16 +579,16 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
